--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB305.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB305.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
-        <v>71.34251403808594</v>
+        <v>71.34250640869141</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.28522515296936e-07</v>
+        <v>-9.778887033462524e-08</v>
       </c>
       <c r="H2" t="n">
         <v>-2.980232238769531e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1574859619140625</v>
+        <v>-0.1574935913085938</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.28522515296936e-07</v>
+        <v>-9.778887033462524e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.980232238769531e-08</v>
+        <v>0.0003960163739975542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1574859619141178</v>
+        <v>0.1574940891978375</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.0003960461763199419</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-71.34250640869141</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.685754776000977e-08</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>-71.34251403808594</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-1.098960638046265e-07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.980232238769531e-08</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.1574859619140625</v>
+        <v>0.1574935913085938</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.098960638046265e-07</v>
+        <v>9.685754776000977e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>2.980232238769531e-08</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1574859619141037</v>
+        <v>0.1574940892727772</v>
       </c>
     </row>
     <row r="4">
@@ -585,28 +585,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
-        <v>319.1126098632812</v>
+        <v>319.1126708984375</v>
       </c>
       <c r="G4" t="n">
-        <v>390.9511108398438</v>
+        <v>390.9512329101562</v>
       </c>
       <c r="H4" t="n">
-        <v>113.95458984375</v>
+        <v>113.9545974731445</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.38739013671875</v>
+        <v>-2.3873291015625</v>
       </c>
       <c r="J4" t="n">
-        <v>5.10174560546875</v>
+        <v>5.10186767578125</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.93408203125</v>
+        <v>-4.933677673339844</v>
       </c>
       <c r="L4" t="n">
-        <v>7.488164353092539</v>
+        <v>7.487961632164046</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-326.4107360839844</v>
+        <v>-326.4108276367188</v>
       </c>
       <c r="G5" t="n">
-        <v>389.742919921875</v>
+        <v>389.7432250976562</v>
       </c>
       <c r="H5" t="n">
-        <v>114.2546920776367</v>
+        <v>114.2547302246094</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.910736083984375</v>
+        <v>-4.91082763671875</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8935546875</v>
+        <v>3.89385986328125</v>
       </c>
       <c r="K5" t="n">
-        <v>-4.633979797363281</v>
+        <v>-4.633544921875</v>
       </c>
       <c r="L5" t="n">
-        <v>7.79415587177152</v>
+        <v>7.794107470099892</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>326.8711242675781</v>
+        <v>326.8710327148438</v>
       </c>
       <c r="G6" t="n">
-        <v>-389.0069580078125</v>
+        <v>-389.0068359375</v>
       </c>
       <c r="H6" t="n">
-        <v>113.9789047241211</v>
+        <v>113.9788818359375</v>
       </c>
       <c r="I6" t="n">
-        <v>5.371124267578125</v>
+        <v>5.37103271484375</v>
       </c>
       <c r="J6" t="n">
-        <v>-3.1575927734375</v>
+        <v>-3.157470703125</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.909767150878906</v>
+        <v>-4.909393310546875</v>
       </c>
       <c r="L6" t="n">
-        <v>7.932539410332668</v>
+        <v>7.932197447281359</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-320.4898681640625</v>
+        <v>-320.4899597167969</v>
       </c>
       <c r="G7" t="n">
-        <v>-393.7319641113281</v>
+        <v>-393.7320861816406</v>
       </c>
       <c r="H7" t="n">
-        <v>114.7013626098633</v>
+        <v>114.7013854980469</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0101318359375</v>
+        <v>1.010040283203125</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.882598876953125</v>
+        <v>-7.882720947265625</v>
       </c>
       <c r="K7" t="n">
-        <v>-4.187309265136719</v>
+        <v>-4.1868896484375</v>
       </c>
       <c r="L7" t="n">
-        <v>8.982721762518137</v>
+        <v>8.982622992998561</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
         <v>177.7242279052734</v>
       </c>
       <c r="G8" t="n">
-        <v>1.349102735519409</v>
+        <v>1.34907341003418</v>
       </c>
       <c r="H8" t="n">
-        <v>120.5290603637695</v>
+        <v>120.5290679931641</v>
       </c>
       <c r="I8" t="n">
         <v>4.455657958984375</v>
       </c>
       <c r="J8" t="n">
-        <v>1.349102735519409</v>
+        <v>1.34907341003418</v>
       </c>
       <c r="K8" t="n">
-        <v>-4.550041198730469</v>
+        <v>-4.549636840820312</v>
       </c>
       <c r="L8" t="n">
-        <v>6.509672875697469</v>
+        <v>6.509384171830042</v>
       </c>
     </row>
     <row r="9">
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
         <v>-177.6490478515625</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.533506870269775</v>
+        <v>-1.533507823944092</v>
       </c>
       <c r="H9" t="n">
         <v>121.574348449707</v>
@@ -790,13 +790,13 @@
         <v>-4.380477905273438</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.533506870269775</v>
+        <v>-1.533507823944092</v>
       </c>
       <c r="K9" t="n">
-        <v>-3.504753112792969</v>
+        <v>-3.504356384277344</v>
       </c>
       <c r="L9" t="n">
-        <v>5.81579954790271</v>
+        <v>5.815560729002138</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-430.0115033122996</v>
+        <v>-430.011577181301</v>
       </c>
       <c r="G10" t="n">
-        <v>383.9003488719893</v>
+        <v>383.9004415936868</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.914419656256001</v>
+        <v>-8.914449712456531</v>
       </c>
       <c r="I10" t="n">
-        <v>-6.742934218447601</v>
+        <v>-6.743008087449027</v>
       </c>
       <c r="J10" t="n">
-        <v>2.063739985270558</v>
+        <v>2.063832706968071</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.788443093756001</v>
+        <v>-2.788076898278064</v>
       </c>
       <c r="L10" t="n">
-        <v>7.582980910448847</v>
+        <v>7.582937181624676</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-504.13470065295</v>
+        <v>-504.1347465064927</v>
       </c>
       <c r="G11" t="n">
-        <v>383.9003488719893</v>
+        <v>383.9004415936868</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.914419656256001</v>
+        <v>-8.914449712456531</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.366131559098051</v>
+        <v>-9.366177412640752</v>
       </c>
       <c r="J11" t="n">
-        <v>2.063739985270558</v>
+        <v>2.063832706968071</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.788443093756001</v>
+        <v>-2.788076898278064</v>
       </c>
       <c r="L11" t="n">
-        <v>9.987935622352227</v>
+        <v>9.987895552023199</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-504.13470065295</v>
+        <v>-504.1347465064927</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.863534015212067</v>
+        <v>-1.863555745096436</v>
       </c>
       <c r="H12" t="n">
-        <v>119.3619480985735</v>
+        <v>119.3619600860316</v>
       </c>
       <c r="I12" t="n">
-        <v>-9.366146391668565</v>
+        <v>-9.366192245211266</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.863526385817536</v>
+        <v>-1.863548115701905</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.717153463926536</v>
+        <v>-5.71674474795276</v>
       </c>
       <c r="L12" t="n">
-        <v>11.13028627443569</v>
+        <v>11.13011856482388</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-426.6844219210985</v>
+        <v>-426.6844793853351</v>
       </c>
       <c r="G13" t="n">
-        <v>-389.9227866647129</v>
+        <v>-389.9228914096523</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.521467570132415</v>
+        <v>-6.521496883052237</v>
       </c>
       <c r="I13" t="n">
-        <v>-3.415852827246511</v>
+        <v>-3.415910291483044</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.08617777799418</v>
+        <v>-8.086282522933516</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.3954910076324154</v>
+        <v>-0.3951240688737698</v>
       </c>
       <c r="L13" t="n">
-        <v>8.786963908646317</v>
+        <v>8.787066130965624</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-504.13470065295</v>
+        <v>-504.1347465064927</v>
       </c>
       <c r="G14" t="n">
-        <v>-389.9227866647129</v>
+        <v>-389.9228914096523</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.521467570132415</v>
+        <v>-6.521496883052237</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.366131559098051</v>
+        <v>-9.366177412640752</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.08617777799418</v>
+        <v>-8.086282522933516</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.3954910076324154</v>
+        <v>-0.3951240688737698</v>
       </c>
       <c r="L14" t="n">
-        <v>12.38010923121349</v>
+        <v>12.38020062016627</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>503.5351006145811</v>
+        <v>503.5351006100681</v>
       </c>
       <c r="G15" t="n">
-        <v>390.186327533418</v>
+        <v>390.1864020476614</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.54440166533107</v>
+        <v>-10.54443074889531</v>
       </c>
       <c r="I15" t="n">
-        <v>8.766531520729131</v>
+        <v>8.766531516216105</v>
       </c>
       <c r="J15" t="n">
-        <v>8.349718646699273</v>
+        <v>8.349793160942681</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.418425102831065</v>
+        <v>-4.418057934716842</v>
       </c>
       <c r="L15" t="n">
-        <v>12.88768236620932</v>
+        <v>12.88760476465079</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>424.5009748426295</v>
+        <v>424.5010282896014</v>
       </c>
       <c r="G16" t="n">
-        <v>390.186327533418</v>
+        <v>390.1864020476614</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.54440166533107</v>
+        <v>-10.54443074889531</v>
       </c>
       <c r="I16" t="n">
-        <v>1.232405748777467</v>
+        <v>1.232459195749414</v>
       </c>
       <c r="J16" t="n">
-        <v>8.349718646699273</v>
+        <v>8.349793160942681</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.418425102831065</v>
+        <v>-4.418057934716842</v>
       </c>
       <c r="L16" t="n">
-        <v>9.526757360087691</v>
+        <v>9.526659299787461</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>503.5351006145811</v>
+        <v>503.5351006100681</v>
       </c>
       <c r="G17" t="n">
-        <v>7.623250490003267</v>
+        <v>7.623265629872222</v>
       </c>
       <c r="H17" t="n">
-        <v>119.2379335212534</v>
+        <v>119.2379294641961</v>
       </c>
       <c r="I17" t="n">
-        <v>8.766546353299645</v>
+        <v>8.766546348786619</v>
       </c>
       <c r="J17" t="n">
-        <v>7.623258119397798</v>
+        <v>7.623273259266753</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.84116804124659</v>
+        <v>-5.840775369788318</v>
       </c>
       <c r="L17" t="n">
-        <v>13.00329355992536</v>
+        <v>13.00312604688586</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>503.5351006145811</v>
+        <v>503.5351006100681</v>
       </c>
       <c r="G18" t="n">
-        <v>-381.1510553570337</v>
+        <v>-381.1511775052367</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.100412084370817</v>
+        <v>-5.100439766167113</v>
       </c>
       <c r="I18" t="n">
-        <v>8.766531520729131</v>
+        <v>8.766531516216105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6855535296850803</v>
+        <v>0.6854313814820898</v>
       </c>
       <c r="K18" t="n">
-        <v>1.025564478129183</v>
+        <v>1.025933048011353</v>
       </c>
       <c r="L18" t="n">
-        <v>8.852900148810075</v>
+        <v>8.852933390833376</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>436.923517583199</v>
+        <v>436.9235897468434</v>
       </c>
       <c r="G19" t="n">
-        <v>-381.1510553570337</v>
+        <v>-381.1511775052367</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.100412084370817</v>
+        <v>-5.100439766167113</v>
       </c>
       <c r="I19" t="n">
-        <v>13.65494848934696</v>
+        <v>13.65502065299142</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6855535296850803</v>
+        <v>0.6854313814820898</v>
       </c>
       <c r="K19" t="n">
-        <v>1.025564478129183</v>
+        <v>1.025933048011353</v>
       </c>
       <c r="L19" t="n">
-        <v>13.71055740615906</v>
+        <v>13.71065074426975</v>
       </c>
     </row>
   </sheetData>
